--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>Ano</t>
+  </si>
+  <si>
     <t>Cadastrado</t>
   </si>
   <si>
     <t>Sem Cadastro</t>
-  </si>
-  <si>
-    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,68 +388,101 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>14294</v>
+      </c>
+      <c r="C2">
+        <v>685903.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>128163.6</v>
+      </c>
+      <c r="C3">
+        <v>1613553.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B2">
-        <v>361473.9</v>
-      </c>
-      <c r="C2">
-        <v>1667595.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="B4">
+        <v>543045.64</v>
+      </c>
+      <c r="C4">
+        <v>2770811.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>2021</v>
       </c>
-      <c r="B3">
-        <v>415031.12</v>
-      </c>
-      <c r="C3">
-        <v>2196739.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="B5">
+        <v>1456784.01</v>
+      </c>
+      <c r="C5">
+        <v>5107712.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>2022</v>
       </c>
-      <c r="B4">
-        <v>574064.9</v>
-      </c>
-      <c r="C4">
-        <v>2492621.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="B6">
+        <v>1655989.08</v>
+      </c>
+      <c r="C6">
+        <v>5704577.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>2023</v>
       </c>
-      <c r="B5">
-        <v>757032.89</v>
-      </c>
-      <c r="C5">
-        <v>3712954.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="B7">
+        <v>1148594.77</v>
+      </c>
+      <c r="C7">
+        <v>5784239.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>2024</v>
       </c>
-      <c r="B6">
-        <v>1559534.24</v>
-      </c>
-      <c r="C6">
-        <v>4946124.39</v>
+      <c r="B8">
+        <v>2797633.46</v>
+      </c>
+      <c r="C8">
+        <v>6627864.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9">
+        <v>1010657.76</v>
+      </c>
+      <c r="C9">
+        <v>2254826.4</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1010657.76</v>
+        <v>1078094.55</v>
       </c>
       <c r="C9">
-        <v>2254826.4</v>
+        <v>2324254.07</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1078094.55</v>
+        <v>1089152.78</v>
       </c>
       <c r="C9">
-        <v>2324254.07</v>
+        <v>2337068.87</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -402,10 +402,10 @@
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>14294</v>
+        <v>10635</v>
       </c>
       <c r="C2">
-        <v>685903.33</v>
+        <v>551304.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>128163.6</v>
+        <v>115875.8</v>
       </c>
       <c r="C3">
-        <v>1613553.48</v>
+        <v>1470196.49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>543045.64</v>
+        <v>525147.84</v>
       </c>
       <c r="C4">
-        <v>2770811.39</v>
+        <v>2263817.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>2021</v>
       </c>
       <c r="B5">
-        <v>1456784.01</v>
+        <v>1337379.79</v>
       </c>
       <c r="C5">
-        <v>5107712.11</v>
+        <v>3512734.74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>1655989.08</v>
+        <v>1604031.07</v>
       </c>
       <c r="C6">
-        <v>5704577.96</v>
+        <v>3520972.84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>1148594.77</v>
+        <v>1067503.69</v>
       </c>
       <c r="C7">
-        <v>5784239.8</v>
+        <v>3402571.31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>2797633.46</v>
+        <v>2685974.57</v>
       </c>
       <c r="C8">
-        <v>6627864.05</v>
+        <v>3817231.7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1089152.78</v>
+        <v>1080234.3</v>
       </c>
       <c r="C9">
-        <v>2337068.87</v>
+        <v>1452793.9</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1080234.3</v>
+        <v>1097745.57</v>
       </c>
       <c r="C9">
-        <v>1452793.9</v>
+        <v>1466340.9</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1097745.57</v>
+        <v>1160741.48</v>
       </c>
       <c r="C9">
-        <v>1466340.9</v>
+        <v>1554725.43</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1160741.48</v>
+        <v>1219050.23</v>
       </c>
       <c r="C9">
-        <v>1554725.43</v>
+        <v>1616126.83</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1219050.23</v>
+        <v>1241240.87</v>
       </c>
       <c r="C9">
-        <v>1616126.83</v>
+        <v>1625181.63</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1241240.87</v>
+        <v>1255059.82</v>
       </c>
       <c r="C9">
-        <v>1625181.63</v>
+        <v>1637801.54</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1255059.82</v>
+        <v>1267589.65</v>
       </c>
       <c r="C9">
-        <v>1637801.54</v>
+        <v>1661680.89</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -402,10 +402,10 @@
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>10635</v>
+        <v>11175</v>
       </c>
       <c r="C2">
-        <v>551304.5</v>
+        <v>550764.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>115875.8</v>
+        <v>116155.8</v>
       </c>
       <c r="C3">
-        <v>1470196.49</v>
+        <v>1469916.49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>525147.84</v>
+        <v>533076.84</v>
       </c>
       <c r="C4">
-        <v>2263817.8</v>
+        <v>2255888.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>2021</v>
       </c>
       <c r="B5">
-        <v>1337379.79</v>
+        <v>1397833.49</v>
       </c>
       <c r="C5">
-        <v>3512734.74</v>
+        <v>3452281.04</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>1604031.07</v>
+        <v>1625135.07</v>
       </c>
       <c r="C6">
-        <v>3520972.84</v>
+        <v>3499868.84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>1067503.69</v>
+        <v>1087507.69</v>
       </c>
       <c r="C7">
-        <v>3402571.31</v>
+        <v>3382567.31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>2685974.57</v>
+        <v>2702868.57</v>
       </c>
       <c r="C8">
-        <v>3817231.7</v>
+        <v>3800337.7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1267589.65</v>
+        <v>1299503.9</v>
       </c>
       <c r="C9">
-        <v>1661680.89</v>
+        <v>1717223</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1299503.9</v>
+        <v>1314084.57</v>
       </c>
       <c r="C9">
-        <v>1717223</v>
+        <v>1730248</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1314084.57</v>
+        <v>1348623.13</v>
       </c>
       <c r="C9">
-        <v>1730248</v>
+        <v>1753486.4</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1348623.13</v>
+        <v>1366192.73</v>
       </c>
       <c r="C9">
-        <v>1753486.4</v>
+        <v>1764371.59</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1366192.73</v>
+        <v>1394133.34</v>
       </c>
       <c r="C9">
-        <v>1764371.59</v>
+        <v>1796860.89</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1394133.34</v>
+        <v>1410096.11</v>
       </c>
       <c r="C9">
-        <v>1796860.89</v>
+        <v>1810429.89</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1410096.11</v>
+        <v>1420899.42</v>
       </c>
       <c r="C9">
-        <v>1810429.89</v>
+        <v>1823782.89</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1420899.42</v>
+        <v>1434092.05</v>
       </c>
       <c r="C9">
-        <v>1823782.89</v>
+        <v>1832209.89</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1434092.05</v>
+        <v>1443826.8</v>
       </c>
       <c r="C9">
-        <v>1832209.89</v>
+        <v>1842457.89</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1443826.8</v>
+        <v>1462048.93</v>
       </c>
       <c r="C9">
-        <v>1842457.89</v>
+        <v>1874001.79</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1462048.93</v>
+        <v>1477613.73</v>
       </c>
       <c r="C9">
-        <v>1874001.79</v>
+        <v>1887742.79</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1477613.73</v>
+        <v>1494979.98</v>
       </c>
       <c r="C9">
-        <v>1887742.79</v>
+        <v>1895613.29</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1494979.98</v>
+        <v>1521650.44</v>
       </c>
       <c r="C9">
-        <v>1895613.29</v>
+        <v>1904460.29</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1521650.44</v>
+        <v>1536007.79</v>
       </c>
       <c r="C9">
-        <v>1904460.29</v>
+        <v>1912508.29</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1536007.79</v>
+        <v>1546552.71</v>
       </c>
       <c r="C9">
-        <v>1912508.29</v>
+        <v>1936532.68</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -482,7 +482,7 @@
         <v>1546552.71</v>
       </c>
       <c r="C9">
-        <v>1936532.68</v>
+        <v>1941475.58</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1546552.71</v>
+        <v>1561317.06</v>
       </c>
       <c r="C9">
-        <v>1941475.58</v>
+        <v>1950568.1</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1561317.06</v>
+        <v>1572471.71</v>
       </c>
       <c r="C9">
-        <v>1950568.1</v>
+        <v>1970668.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1572471.71</v>
+        <v>1594431.29</v>
       </c>
       <c r="C9">
-        <v>1970668.45</v>
+        <v>1981828.23</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1594431.29</v>
+        <v>1618021.06</v>
       </c>
       <c r="C9">
-        <v>1981828.23</v>
+        <v>1997082.09</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1618021.06</v>
+        <v>1632012.45</v>
       </c>
       <c r="C9">
-        <v>1997082.09</v>
+        <v>2005205.99</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1632012.45</v>
+        <v>1639823.45</v>
       </c>
       <c r="C9">
-        <v>2005205.99</v>
+        <v>2029890.81</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1639823.45</v>
+        <v>1658670.65</v>
       </c>
       <c r="C9">
-        <v>2029890.81</v>
+        <v>2039558.01</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1658670.65</v>
+        <v>1668348.44</v>
       </c>
       <c r="C9">
-        <v>2039558.01</v>
+        <v>2047979.01</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1668348.44</v>
+        <v>1696213.29</v>
       </c>
       <c r="C9">
-        <v>2047979.01</v>
+        <v>2064309.31</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1696213.29</v>
+        <v>1706491.66</v>
       </c>
       <c r="C9">
-        <v>2064309.31</v>
+        <v>2089174.3</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1706491.66</v>
+        <v>1722488.63</v>
       </c>
       <c r="C9">
-        <v>2089174.3</v>
+        <v>2098360.59</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1722488.63</v>
+        <v>1736851.55</v>
       </c>
       <c r="C9">
-        <v>2098360.59</v>
+        <v>2106600.49</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1736851.55</v>
+        <v>1748643.15</v>
       </c>
       <c r="C9">
-        <v>2106600.49</v>
+        <v>2114989.35</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1748643.15</v>
+        <v>1767149.06</v>
       </c>
       <c r="C9">
-        <v>2114989.35</v>
+        <v>2135142.75</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1767149.06</v>
+        <v>1779857.08</v>
       </c>
       <c r="C9">
-        <v>2135142.75</v>
+        <v>2162673.75</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1779857.08</v>
+        <v>1797843.4</v>
       </c>
       <c r="C9">
-        <v>2162673.75</v>
+        <v>2169016.55</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1797843.4</v>
+        <v>1803713.66</v>
       </c>
       <c r="C9">
-        <v>2169016.55</v>
+        <v>2180375.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1803713.66</v>
+        <v>1815436.31</v>
       </c>
       <c r="C9">
-        <v>2180375.45</v>
+        <v>2189622.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1815436.31</v>
+        <v>1824927.04</v>
       </c>
       <c r="C9">
-        <v>2189622.45</v>
+        <v>2203699.05</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1824927.04</v>
+        <v>1845372.28</v>
       </c>
       <c r="C9">
-        <v>2203699.05</v>
+        <v>2229416.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1845372.28</v>
+        <v>1859497.95</v>
       </c>
       <c r="C9">
-        <v>2229416.45</v>
+        <v>2235208.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1859497.95</v>
+        <v>1867829.26</v>
       </c>
       <c r="C9">
-        <v>2235208.45</v>
+        <v>2246452.95</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1867829.26</v>
+        <v>1879750.33</v>
       </c>
       <c r="C9">
-        <v>2246452.95</v>
+        <v>2252845.85</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1879750.33</v>
+        <v>1888691.93</v>
       </c>
       <c r="C9">
-        <v>2252845.85</v>
+        <v>2265170.25</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1888691.93</v>
+        <v>1906583.15</v>
       </c>
       <c r="C9">
-        <v>2265170.25</v>
+        <v>2285713.05</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1906583.15</v>
+        <v>1921570</v>
       </c>
       <c r="C9">
-        <v>2285713.05</v>
+        <v>2292004.61</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1921570</v>
+        <v>1937760.04</v>
       </c>
       <c r="C9">
-        <v>2292004.61</v>
+        <v>2307949.61</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1937760.04</v>
+        <v>1948811.16</v>
       </c>
       <c r="C9">
-        <v>2307949.61</v>
+        <v>2327763.41</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1948811.16</v>
+        <v>1956223.78</v>
       </c>
       <c r="C9">
-        <v>2327763.41</v>
+        <v>2337967.86</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1956223.78</v>
+        <v>1974362.08</v>
       </c>
       <c r="C9">
-        <v>2337967.86</v>
+        <v>2362391.51</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1974362.08</v>
+        <v>1992955.7</v>
       </c>
       <c r="C9">
-        <v>2362391.51</v>
+        <v>2371125.51</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1992955.7</v>
+        <v>2003106.9</v>
       </c>
       <c r="C9">
-        <v>2371125.51</v>
+        <v>2377259.51</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2003106.9</v>
+        <v>2011577.22</v>
       </c>
       <c r="C9">
-        <v>2377259.51</v>
+        <v>2383099.51</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2011577.22</v>
+        <v>2018387.19</v>
       </c>
       <c r="C9">
-        <v>2383099.51</v>
+        <v>2391809.51</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2018387.19</v>
+        <v>2032512.49</v>
       </c>
       <c r="C9">
-        <v>2391809.51</v>
+        <v>2412371.31</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2032512.49</v>
+        <v>2050018.66</v>
       </c>
       <c r="C9">
-        <v>2412371.31</v>
+        <v>2419247.11</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2050018.66</v>
+        <v>2060076.02</v>
       </c>
       <c r="C9">
-        <v>2419247.11</v>
+        <v>2429722.51</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2060076.02</v>
+        <v>2117031.92</v>
       </c>
       <c r="C9">
-        <v>2429722.51</v>
+        <v>2437213.41</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2117031.92</v>
+        <v>2134115.68</v>
       </c>
       <c r="C9">
-        <v>2437213.41</v>
+        <v>2447554.31</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2134115.68</v>
+        <v>2151943.69</v>
       </c>
       <c r="C9">
-        <v>2447554.31</v>
+        <v>2477233.6</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2151943.69</v>
+        <v>2169154.31</v>
       </c>
       <c r="C9">
-        <v>2477233.6</v>
+        <v>2484932</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2169154.31</v>
+        <v>2182232.38</v>
       </c>
       <c r="C9">
-        <v>2484932</v>
+        <v>2492901.9</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2182232.38</v>
+        <v>2190837.57</v>
       </c>
       <c r="C9">
-        <v>2492901.9</v>
+        <v>2500830.7</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2190837.57</v>
+        <v>2227933.62</v>
       </c>
       <c r="C9">
-        <v>2500830.7</v>
+        <v>2548909.78</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2227933.62</v>
+        <v>2253687.42</v>
       </c>
       <c r="C9">
-        <v>2548909.78</v>
+        <v>2555997.78</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2253687.42</v>
+        <v>2286699.99</v>
       </c>
       <c r="C9">
-        <v>2555997.78</v>
+        <v>2576534.99</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2286699.99</v>
+        <v>2301780.8</v>
       </c>
       <c r="C9">
-        <v>2576534.99</v>
+        <v>2582688.14</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2301780.8</v>
+        <v>2341189.61</v>
       </c>
       <c r="C9">
-        <v>2582688.14</v>
+        <v>2611080.63</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2341189.61</v>
+        <v>2384594.2</v>
       </c>
       <c r="C9">
-        <v>2611080.63</v>
+        <v>2619380.14</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2384594.2</v>
+        <v>2394914.72</v>
       </c>
       <c r="C9">
-        <v>2619380.14</v>
+        <v>2624607.14</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_anual_geral.xlsx
@@ -479,10 +479,10 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>2394914.72</v>
+        <v>2418471.96</v>
       </c>
       <c r="C9">
-        <v>2624607.14</v>
+        <v>2646692.92</v>
       </c>
     </row>
   </sheetData>
